--- a/shortwave/shortwave_mls_H2O_by_rrtmg_bands.xlsx
+++ b/shortwave/shortwave_mls_H2O_by_rrtmg_bands.xlsx
@@ -4662,10 +4662,10 @@
         <v>-0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.5527136788005e-15</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.5527136788005e-15</v>
       </c>
       <c r="G13">
         <v>-0.0514775366200001</v>
@@ -4683,10 +4683,10 @@
         <v>-0</v>
       </c>
       <c r="E14">
-        <v>-0.161289730211323</v>
+        <v>-0.161289730211319</v>
       </c>
       <c r="F14">
-        <v>-0.161289730211323</v>
+        <v>-0.161289730211319</v>
       </c>
       <c r="G14">
         <v>0.00611127467262806</v>
@@ -4704,10 +4704,10 @@
         <v>-0</v>
       </c>
       <c r="E15">
-        <v>-0.452562178304342</v>
+        <v>-0.452562178304341</v>
       </c>
       <c r="F15">
-        <v>-0.452562178304342</v>
+        <v>-0.452562178304341</v>
       </c>
       <c r="G15">
         <v>0.0116173549538917</v>
@@ -4727,10 +4727,10 @@
         <v>-0</v>
       </c>
       <c r="E16">
-        <v>6.99999986863986e-08</v>
+        <v>7.00000022391123e-08</v>
       </c>
       <c r="F16">
-        <v>6.99999986863986e-08</v>
+        <v>7.00000022391123e-08</v>
       </c>
       <c r="G16">
         <v>-0.0522932032300001</v>
@@ -4748,10 +4748,10 @@
         <v>-0</v>
       </c>
       <c r="E17">
-        <v>-0.157740040211323</v>
+        <v>-0.157740040211319</v>
       </c>
       <c r="F17">
-        <v>-0.157740040211323</v>
+        <v>-0.157740040211319</v>
       </c>
       <c r="G17">
         <v>0.00576531756051604</v>
@@ -4769,10 +4769,10 @@
         <v>-0</v>
       </c>
       <c r="E18">
-        <v>-0.445699775441646</v>
+        <v>-0.445699775441645</v>
       </c>
       <c r="F18">
-        <v>-0.445699775441646</v>
+        <v>-0.445699775441645</v>
       </c>
       <c r="G18">
         <v>0.0114870781224792</v>
@@ -5102,10 +5102,10 @@
         <v>-0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="G13">
         <v>-0.05102439033</v>
@@ -5123,10 +5123,10 @@
         <v>-0</v>
       </c>
       <c r="E14">
-        <v>-0.155775244183403</v>
+        <v>-0.15577524418341</v>
       </c>
       <c r="F14">
-        <v>-0.155775244183403</v>
+        <v>-0.15577524418341</v>
       </c>
       <c r="G14">
         <v>0.00628149564877034</v>
@@ -5167,10 +5167,10 @@
         <v>-0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="G16">
         <v>-0.05102439033</v>
@@ -5188,10 +5188,10 @@
         <v>-0</v>
       </c>
       <c r="E17">
-        <v>-0.155224774183402</v>
+        <v>-0.155224774183409</v>
       </c>
       <c r="F17">
-        <v>-0.155224774183402</v>
+        <v>-0.155224774183409</v>
       </c>
       <c r="G17">
         <v>0.00624665283671993</v>
